--- a/docs/dict/area.xlsx
+++ b/docs/dict/area.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="595">
   <si>
     <t>1 линия моря</t>
   </si>
@@ -1403,6 +1403,402 @@
   </si>
   <si>
     <t>Яхт-клуб</t>
+  </si>
+  <si>
+    <t>Абрау-Дюрсо</t>
+  </si>
+  <si>
+    <t>Новороссийский</t>
+  </si>
+  <si>
+    <t>Адербиевка</t>
+  </si>
+  <si>
+    <t>Геленджикский</t>
+  </si>
+  <si>
+    <t>Анапа</t>
+  </si>
+  <si>
+    <t>Анапский</t>
+  </si>
+  <si>
+    <t>Анапская</t>
+  </si>
+  <si>
+    <t>Артющенко</t>
+  </si>
+  <si>
+    <t>Темрюкский</t>
+  </si>
+  <si>
+    <t>Архипо-Осиповка</t>
+  </si>
+  <si>
+    <t>Афонка</t>
+  </si>
+  <si>
+    <t>Ахтанизовская</t>
+  </si>
+  <si>
+    <t>Батарейка</t>
+  </si>
+  <si>
+    <t>Белый</t>
+  </si>
+  <si>
+    <t>Береговое</t>
+  </si>
+  <si>
+    <t>Береговой</t>
+  </si>
+  <si>
+    <t>Бетта</t>
+  </si>
+  <si>
+    <t>Благовещенская</t>
+  </si>
+  <si>
+    <t>Большие Хутора</t>
+  </si>
+  <si>
+    <t>Борисовка</t>
+  </si>
+  <si>
+    <t>Бужор</t>
+  </si>
+  <si>
+    <t>Варваровка</t>
+  </si>
+  <si>
+    <t>Васильевка</t>
+  </si>
+  <si>
+    <t>Верхнебаканский</t>
+  </si>
+  <si>
+    <t>Верхнее Джемете</t>
+  </si>
+  <si>
+    <t>Верхний Ханчакрак</t>
+  </si>
+  <si>
+    <t>Верхний Чекон</t>
+  </si>
+  <si>
+    <t>Веселая горка</t>
+  </si>
+  <si>
+    <t>Веселовка (Янтарь)</t>
+  </si>
+  <si>
+    <t>Вестник</t>
+  </si>
+  <si>
+    <t>Виноградное</t>
+  </si>
+  <si>
+    <t>Виноградный</t>
+  </si>
+  <si>
+    <t>Витязево</t>
+  </si>
+  <si>
+    <t>Владимировка</t>
+  </si>
+  <si>
+    <t>Возрождение</t>
+  </si>
+  <si>
+    <t>Волна Революции</t>
+  </si>
+  <si>
+    <t>Волна</t>
+  </si>
+  <si>
+    <t>Воскресенский</t>
+  </si>
+  <si>
+    <t>Вышестеблиевская</t>
+  </si>
+  <si>
+    <t>Гайдук</t>
+  </si>
+  <si>
+    <t>Гайкодзор</t>
+  </si>
+  <si>
+    <t>Гаркуша</t>
+  </si>
+  <si>
+    <t>Геленджик</t>
+  </si>
+  <si>
+    <t>Глебовское</t>
+  </si>
+  <si>
+    <t>Голубицкая</t>
+  </si>
+  <si>
+    <t>Горный</t>
+  </si>
+  <si>
+    <t>Гостагаевская</t>
+  </si>
+  <si>
+    <t>Джанхот</t>
+  </si>
+  <si>
+    <t>Джемете</t>
+  </si>
+  <si>
+    <t>Джигинка</t>
+  </si>
+  <si>
+    <t>Дивноморское</t>
+  </si>
+  <si>
+    <t>Дюрсо</t>
+  </si>
+  <si>
+    <t>За Родину</t>
+  </si>
+  <si>
+    <t>Запорожская</t>
+  </si>
+  <si>
+    <t>Заря</t>
+  </si>
+  <si>
+    <t>Иваново</t>
+  </si>
+  <si>
+    <t>Ильич</t>
+  </si>
+  <si>
+    <t>Кабардинка</t>
+  </si>
+  <si>
+    <t>Капустино</t>
+  </si>
+  <si>
+    <t>Киблерово</t>
+  </si>
+  <si>
+    <t>Кирилловка</t>
+  </si>
+  <si>
+    <t>Красная Горка</t>
+  </si>
+  <si>
+    <t>Красная Скала</t>
+  </si>
+  <si>
+    <t>Красноармейский</t>
+  </si>
+  <si>
+    <t>Красный Курган</t>
+  </si>
+  <si>
+    <t>Красный Октябрь</t>
+  </si>
+  <si>
+    <t>Красный</t>
+  </si>
+  <si>
+    <t>Криница</t>
+  </si>
+  <si>
+    <t>Куматырь</t>
+  </si>
+  <si>
+    <t>Курбацкий</t>
+  </si>
+  <si>
+    <t>Курчанская</t>
+  </si>
+  <si>
+    <t>Кучугуры</t>
+  </si>
+  <si>
+    <t>Ленинский Путь</t>
+  </si>
+  <si>
+    <t>Лесничество Абрау-Дюрсо</t>
+  </si>
+  <si>
+    <t>Лиманный</t>
+  </si>
+  <si>
+    <t>Малый Разнокол</t>
+  </si>
+  <si>
+    <t>Малый Чекон</t>
+  </si>
+  <si>
+    <t>Марьина Роща</t>
+  </si>
+  <si>
+    <t>Михайловский Перевал</t>
+  </si>
+  <si>
+    <t>Мысхако</t>
+  </si>
+  <si>
+    <t>Натухаевская</t>
+  </si>
+  <si>
+    <t>Нижняя Гостагайка</t>
+  </si>
+  <si>
+    <t>Новороссийск</t>
+  </si>
+  <si>
+    <t>Павловка</t>
+  </si>
+  <si>
+    <t>Пересыпь</t>
+  </si>
+  <si>
+    <t>Песчаный</t>
+  </si>
+  <si>
+    <t>Победа</t>
+  </si>
+  <si>
+    <t>Прасковеевка</t>
+  </si>
+  <si>
+    <t>Приазовский</t>
+  </si>
+  <si>
+    <t>Приморский</t>
+  </si>
+  <si>
+    <t>Прогресс</t>
+  </si>
+  <si>
+    <t>Просторный</t>
+  </si>
+  <si>
+    <t>Пшада</t>
+  </si>
+  <si>
+    <t>Пятихатки</t>
+  </si>
+  <si>
+    <t>Раевская</t>
+  </si>
+  <si>
+    <t>Разнокол</t>
+  </si>
+  <si>
+    <t>Рассвет</t>
+  </si>
+  <si>
+    <t>Светлый Путь</t>
+  </si>
+  <si>
+    <t>Светлый</t>
+  </si>
+  <si>
+    <t>Северная Озереевка</t>
+  </si>
+  <si>
+    <t>Семигорский</t>
+  </si>
+  <si>
+    <t>Сенной</t>
+  </si>
+  <si>
+    <t>Соленый</t>
+  </si>
+  <si>
+    <t>Старотитаровская</t>
+  </si>
+  <si>
+    <t>Стрелка</t>
+  </si>
+  <si>
+    <t>Суворово-Черкесский</t>
+  </si>
+  <si>
+    <t>Сукко</t>
+  </si>
+  <si>
+    <t>Супсех</t>
+  </si>
+  <si>
+    <t>Таманский</t>
+  </si>
+  <si>
+    <t>Тамань</t>
+  </si>
+  <si>
+    <t>Тарусино</t>
+  </si>
+  <si>
+    <t>Текос</t>
+  </si>
+  <si>
+    <t>Темрюк</t>
+  </si>
+  <si>
+    <t>Тешебс</t>
+  </si>
+  <si>
+    <t>Убых</t>
+  </si>
+  <si>
+    <t>Усатова Балка</t>
+  </si>
+  <si>
+    <t>Уташ</t>
+  </si>
+  <si>
+    <t>Утриш</t>
+  </si>
+  <si>
+    <t>Фадеево</t>
+  </si>
+  <si>
+    <t>Федотовка</t>
+  </si>
+  <si>
+    <t>Фонталовская</t>
+  </si>
+  <si>
+    <t>Цемдолина</t>
+  </si>
+  <si>
+    <t>Цыбанобалка</t>
+  </si>
+  <si>
+    <t>Чекон</t>
+  </si>
+  <si>
+    <t>Чембурка</t>
+  </si>
+  <si>
+    <t>Черный</t>
+  </si>
+  <si>
+    <t>Широкая Балка</t>
+  </si>
+  <si>
+    <t>Широкая Пшадская Щель</t>
+  </si>
+  <si>
+    <t>Широкая Щель</t>
+  </si>
+  <si>
+    <t>Юбилейный</t>
+  </si>
+  <si>
+    <t>Южная Озереевка</t>
+  </si>
+  <si>
+    <t>Юровка</t>
   </si>
 </sst>
 </file>
@@ -2249,733 +2645,1898 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A463"/>
+  <dimension ref="A1:E463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>469</v>
+      </c>
+      <c r="E4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>470</v>
+      </c>
+      <c r="E5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>472</v>
+      </c>
+      <c r="E6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>473</v>
+      </c>
+      <c r="E7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>475</v>
+      </c>
+      <c r="E9" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>476</v>
+      </c>
+      <c r="E10" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>477</v>
+      </c>
+      <c r="E11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>478</v>
+      </c>
+      <c r="E12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>479</v>
+      </c>
+      <c r="E13" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>480</v>
+      </c>
+      <c r="E14" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>481</v>
+      </c>
+      <c r="E15" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>482</v>
+      </c>
+      <c r="E16" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>483</v>
+      </c>
+      <c r="E17" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>484</v>
+      </c>
+      <c r="E18" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>485</v>
+      </c>
+      <c r="E19" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>486</v>
+      </c>
+      <c r="E20" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>487</v>
+      </c>
+      <c r="E21" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>488</v>
+      </c>
+      <c r="E22" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>489</v>
+      </c>
+      <c r="E23" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>490</v>
+      </c>
+      <c r="E24" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>491</v>
+      </c>
+      <c r="E25" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>492</v>
+      </c>
+      <c r="E26" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E27" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>494</v>
+      </c>
+      <c r="E28" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>494</v>
+      </c>
+      <c r="E29" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>495</v>
+      </c>
+      <c r="E30" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>496</v>
+      </c>
+      <c r="E31" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>497</v>
+      </c>
+      <c r="E32" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>498</v>
+      </c>
+      <c r="E33" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
+        <v>499</v>
+      </c>
+      <c r="E34" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>500</v>
+      </c>
+      <c r="E35" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>501</v>
+      </c>
+      <c r="E36" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>502</v>
+      </c>
+      <c r="E37" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>503</v>
+      </c>
+      <c r="E38" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>39</v>
+      </c>
+      <c r="D39" t="s">
+        <v>504</v>
+      </c>
+      <c r="E39" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>40</v>
+      </c>
+      <c r="D40" t="s">
+        <v>505</v>
+      </c>
+      <c r="E40" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>41</v>
+      </c>
+      <c r="D41" t="s">
+        <v>506</v>
+      </c>
+      <c r="E41" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>42</v>
+      </c>
+      <c r="D42" t="s">
+        <v>507</v>
+      </c>
+      <c r="E42" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>43</v>
+      </c>
+      <c r="D43" t="s">
+        <v>508</v>
+      </c>
+      <c r="E43" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>44</v>
+      </c>
+      <c r="D44" t="s">
+        <v>509</v>
+      </c>
+      <c r="E44" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>45</v>
+      </c>
+      <c r="D45" t="s">
+        <v>510</v>
+      </c>
+      <c r="E45" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>46</v>
+      </c>
+      <c r="D46" t="s">
+        <v>511</v>
+      </c>
+      <c r="E46" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>47</v>
+      </c>
+      <c r="D47" t="s">
+        <v>512</v>
+      </c>
+      <c r="E47" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>48</v>
+      </c>
+      <c r="D48" t="s">
+        <v>513</v>
+      </c>
+      <c r="E48" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>49</v>
+      </c>
+      <c r="D49" t="s">
+        <v>514</v>
+      </c>
+      <c r="E49" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>50</v>
+      </c>
+      <c r="D50" t="s">
+        <v>515</v>
+      </c>
+      <c r="E50" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>51</v>
+      </c>
+      <c r="D51" t="s">
+        <v>516</v>
+      </c>
+      <c r="E51" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>52</v>
+      </c>
+      <c r="D52" t="s">
+        <v>517</v>
+      </c>
+      <c r="E52" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>53</v>
+      </c>
+      <c r="D53" t="s">
+        <v>518</v>
+      </c>
+      <c r="E53" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>54</v>
+      </c>
+      <c r="D54" t="s">
+        <v>519</v>
+      </c>
+      <c r="E54" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>55</v>
+      </c>
+      <c r="D55" t="s">
+        <v>520</v>
+      </c>
+      <c r="E55" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>56</v>
+      </c>
+      <c r="D56" t="s">
+        <v>521</v>
+      </c>
+      <c r="E56" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>57</v>
+      </c>
+      <c r="D57" t="s">
+        <v>522</v>
+      </c>
+      <c r="E57" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>58</v>
+      </c>
+      <c r="D58" t="s">
+        <v>523</v>
+      </c>
+      <c r="E58" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>59</v>
+      </c>
+      <c r="D59" t="s">
+        <v>524</v>
+      </c>
+      <c r="E59" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>60</v>
+      </c>
+      <c r="D60" t="s">
+        <v>525</v>
+      </c>
+      <c r="E60" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>61</v>
+      </c>
+      <c r="D61" t="s">
+        <v>526</v>
+      </c>
+      <c r="E61" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>62</v>
+      </c>
+      <c r="D62" t="s">
+        <v>527</v>
+      </c>
+      <c r="E62" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>63</v>
+      </c>
+      <c r="D63" t="s">
+        <v>528</v>
+      </c>
+      <c r="E63" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>64</v>
+      </c>
+      <c r="D64" t="s">
+        <v>529</v>
+      </c>
+      <c r="E64" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>65</v>
+      </c>
+      <c r="D65" t="s">
+        <v>530</v>
+      </c>
+      <c r="E65" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>66</v>
+      </c>
+      <c r="D66" t="s">
+        <v>531</v>
+      </c>
+      <c r="E66" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>67</v>
+      </c>
+      <c r="D67" t="s">
+        <v>532</v>
+      </c>
+      <c r="E67" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>533</v>
+      </c>
+      <c r="E68" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>69</v>
+      </c>
+      <c r="D69" t="s">
+        <v>534</v>
+      </c>
+      <c r="E69" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>70</v>
+      </c>
+      <c r="D70" t="s">
+        <v>535</v>
+      </c>
+      <c r="E70" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>71</v>
+      </c>
+      <c r="D71" t="s">
+        <v>536</v>
+      </c>
+      <c r="E71" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>72</v>
+      </c>
+      <c r="D72" t="s">
+        <v>537</v>
+      </c>
+      <c r="E72" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>73</v>
+      </c>
+      <c r="D73" t="s">
+        <v>538</v>
+      </c>
+      <c r="E73" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>74</v>
+      </c>
+      <c r="D74" t="s">
+        <v>539</v>
+      </c>
+      <c r="E74" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>75</v>
+      </c>
+      <c r="D75" t="s">
+        <v>540</v>
+      </c>
+      <c r="E75" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>76</v>
+      </c>
+      <c r="D76" t="s">
+        <v>541</v>
+      </c>
+      <c r="E76" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>77</v>
+      </c>
+      <c r="D77" t="s">
+        <v>542</v>
+      </c>
+      <c r="E77" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>78</v>
+      </c>
+      <c r="D78" t="s">
+        <v>543</v>
+      </c>
+      <c r="E78" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>79</v>
+      </c>
+      <c r="D79" t="s">
+        <v>544</v>
+      </c>
+      <c r="E79" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>80</v>
+      </c>
+      <c r="D80" t="s">
+        <v>545</v>
+      </c>
+      <c r="E80" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>81</v>
+      </c>
+      <c r="D81" t="s">
+        <v>546</v>
+      </c>
+      <c r="E81" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>82</v>
+      </c>
+      <c r="D82" t="s">
+        <v>547</v>
+      </c>
+      <c r="E82" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>83</v>
+      </c>
+      <c r="D83" t="s">
+        <v>548</v>
+      </c>
+      <c r="E83" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>84</v>
+      </c>
+      <c r="D84" t="s">
+        <v>549</v>
+      </c>
+      <c r="E84" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>85</v>
+      </c>
+      <c r="D85" t="s">
+        <v>550</v>
+      </c>
+      <c r="E85" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>86</v>
+      </c>
+      <c r="D86" t="s">
+        <v>551</v>
+      </c>
+      <c r="E86" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>87</v>
+      </c>
+      <c r="D87" t="s">
+        <v>552</v>
+      </c>
+      <c r="E87" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>88</v>
+      </c>
+      <c r="D88" t="s">
+        <v>553</v>
+      </c>
+      <c r="E88" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>89</v>
+      </c>
+      <c r="D89" t="s">
+        <v>554</v>
+      </c>
+      <c r="E89" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>90</v>
+      </c>
+      <c r="D90" t="s">
+        <v>555</v>
+      </c>
+      <c r="E90" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>91</v>
+      </c>
+      <c r="D91" t="s">
+        <v>556</v>
+      </c>
+      <c r="E91" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>92</v>
+      </c>
+      <c r="D92" t="s">
+        <v>557</v>
+      </c>
+      <c r="E92" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>93</v>
+      </c>
+      <c r="D93" t="s">
+        <v>558</v>
+      </c>
+      <c r="E93" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>94</v>
+      </c>
+      <c r="D94" t="s">
+        <v>559</v>
+      </c>
+      <c r="E94" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>95</v>
+      </c>
+      <c r="D95" t="s">
+        <v>560</v>
+      </c>
+      <c r="E95" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>96</v>
+      </c>
+      <c r="D96" t="s">
+        <v>561</v>
+      </c>
+      <c r="E96" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>97</v>
+      </c>
+      <c r="D97" t="s">
+        <v>562</v>
+      </c>
+      <c r="E97" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>98</v>
+      </c>
+      <c r="D98" t="s">
+        <v>563</v>
+      </c>
+      <c r="E98" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>99</v>
+      </c>
+      <c r="D99" t="s">
+        <v>564</v>
+      </c>
+      <c r="E99" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>100</v>
+      </c>
+      <c r="D100" t="s">
+        <v>565</v>
+      </c>
+      <c r="E100" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>101</v>
+      </c>
+      <c r="D101" t="s">
+        <v>566</v>
+      </c>
+      <c r="E101" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>102</v>
+      </c>
+      <c r="D102" t="s">
+        <v>567</v>
+      </c>
+      <c r="E102" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>103</v>
+      </c>
+      <c r="D103" t="s">
+        <v>568</v>
+      </c>
+      <c r="E103" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>104</v>
+      </c>
+      <c r="D104" t="s">
+        <v>569</v>
+      </c>
+      <c r="E104" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>105</v>
+      </c>
+      <c r="D105" t="s">
+        <v>570</v>
+      </c>
+      <c r="E105" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>106</v>
+      </c>
+      <c r="D106" t="s">
+        <v>571</v>
+      </c>
+      <c r="E106" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>107</v>
+      </c>
+      <c r="D107" t="s">
+        <v>572</v>
+      </c>
+      <c r="E107" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>108</v>
+      </c>
+      <c r="D108" t="s">
+        <v>573</v>
+      </c>
+      <c r="E108" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>109</v>
+      </c>
+      <c r="D109" t="s">
+        <v>574</v>
+      </c>
+      <c r="E109" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>110</v>
+      </c>
+      <c r="D110" t="s">
+        <v>575</v>
+      </c>
+      <c r="E110" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>111</v>
+      </c>
+      <c r="D111" t="s">
+        <v>576</v>
+      </c>
+      <c r="E111" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>112</v>
+      </c>
+      <c r="D112" t="s">
+        <v>577</v>
+      </c>
+      <c r="E112" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>113</v>
+      </c>
+      <c r="D113" t="s">
+        <v>578</v>
+      </c>
+      <c r="E113" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>114</v>
+      </c>
+      <c r="D114" t="s">
+        <v>579</v>
+      </c>
+      <c r="E114" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>115</v>
+      </c>
+      <c r="D115" t="s">
+        <v>580</v>
+      </c>
+      <c r="E115" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>116</v>
+      </c>
+      <c r="D116" t="s">
+        <v>581</v>
+      </c>
+      <c r="E116" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>117</v>
+      </c>
+      <c r="D117" t="s">
+        <v>582</v>
+      </c>
+      <c r="E117" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>118</v>
+      </c>
+      <c r="D118" t="s">
+        <v>583</v>
+      </c>
+      <c r="E118" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>119</v>
+      </c>
+      <c r="D119" t="s">
+        <v>584</v>
+      </c>
+      <c r="E119" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>120</v>
+      </c>
+      <c r="D120" t="s">
+        <v>585</v>
+      </c>
+      <c r="E120" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>121</v>
+      </c>
+      <c r="D121" t="s">
+        <v>586</v>
+      </c>
+      <c r="E121" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>122</v>
+      </c>
+      <c r="D122" t="s">
+        <v>587</v>
+      </c>
+      <c r="E122" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>123</v>
+      </c>
+      <c r="D123" t="s">
+        <v>588</v>
+      </c>
+      <c r="E123" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>124</v>
+      </c>
+      <c r="D124" t="s">
+        <v>589</v>
+      </c>
+      <c r="E124" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>125</v>
+      </c>
+      <c r="D125" t="s">
+        <v>590</v>
+      </c>
+      <c r="E125" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>126</v>
+      </c>
+      <c r="D126" t="s">
+        <v>591</v>
+      </c>
+      <c r="E126" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>127</v>
+      </c>
+      <c r="D127" t="s">
+        <v>592</v>
+      </c>
+      <c r="E127" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>128</v>
+      </c>
+      <c r="D128" t="s">
+        <v>593</v>
+      </c>
+      <c r="E128" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>129</v>
+      </c>
+      <c r="D129" t="s">
+        <v>594</v>
+      </c>
+      <c r="E129" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
